--- a/SuppXLS/Scen_Powerflow.xlsx
+++ b/SuppXLS/Scen_Powerflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/8760 - Model Student Team/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="631" documentId="13_ncr:1_{B54D46FB-31A8-43B8-8CAF-709D2E09D066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8086E7F-3292-4E5F-A676-FE60353CC5D3}"/>
+  <xr:revisionPtr revIDLastSave="638" documentId="13_ncr:1_{B54D46FB-31A8-43B8-8CAF-709D2E09D066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{016969A8-CC96-4885-A176-6EEEBF8F1009}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-18000" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>* Define line reactances (not really needed for any of the exogenous links EX-*)</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>L_N23_N9</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,14 +291,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +332,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -405,7 +404,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +581,7 @@
   <dimension ref="A1:N300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -591,6 +590,7 @@
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="9" width="7.109375" customWidth="1"/>
     <col min="10" max="13" width="6.88671875" customWidth="1"/>
@@ -613,11 +613,14 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
@@ -2578,18 +2581,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2737,6 +2740,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D5EDA2-EA34-4749-87F9-B0ED13959260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F030364-7776-4F7E-B779-564F9602B196}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2748,14 +2759,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D5EDA2-EA34-4749-87F9-B0ED13959260}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SuppXLS/Scen_Powerflow.xlsx
+++ b/SuppXLS/Scen_Powerflow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -50,12 +50,15 @@
     <t>Year</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
     <t>Values</t>
   </si>
   <si>
-    <t>Pset_PN</t>
-  </si>
-  <si>
     <t>PRC_REACT</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>L_N3_N23</t>
   </si>
   <si>
+    <t>L_N23_N9</t>
+  </si>
+  <si>
     <t>L_N4_N7</t>
   </si>
   <si>
@@ -168,12 +174,6 @@
   </si>
   <si>
     <t>L_N10_N20</t>
-  </si>
-  <si>
-    <t>L_N23_N9</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000;\-0.000;;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -276,7 +276,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -294,7 +294,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +332,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -404,7 +404,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,29 +584,29 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="9" width="7.109375" customWidth="1"/>
-    <col min="10" max="13" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="13.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="13.9" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -614,18 +614,18 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -634,12 +634,12 @@
         <v>3.0640000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -648,12 +648,12 @@
         <v>8.5470000000000006</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.15">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -662,7 +662,7 @@
         <v>6.3129999999999997</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -675,9 +675,9 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="13.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -686,7 +686,7 @@
         <v>29.491</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -699,9 +699,9 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="13.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2023</v>
@@ -710,7 +710,7 @@
         <v>14.17</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -723,9 +723,9 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="13.15">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -734,7 +734,7 @@
         <v>31.952000000000002</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -747,9 +747,9 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="13.15">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -758,7 +758,7 @@
         <v>30.120290021280127</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -771,9 +771,9 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="13.15">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -782,7 +782,7 @@
         <v>20.69</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -795,9 +795,9 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="13.15">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>2023</v>
@@ -806,7 +806,7 @@
         <v>51.281999999999996</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -819,9 +819,9 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="13.15">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>2023</v>
@@ -830,7 +830,7 @@
         <v>5.5469999999999997</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -843,9 +843,9 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="13.15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>2023</v>
@@ -854,7 +854,7 @@
         <v>142.803</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -867,9 +867,9 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="13.15">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>2023</v>
@@ -878,7 +878,7 @@
         <v>28.803999999999998</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -891,9 +891,9 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="13.15">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>2023</v>
@@ -902,7 +902,7 @@
         <v>8.5470000000000006</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -915,9 +915,9 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="13.15">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>2023</v>
@@ -926,7 +926,7 @@
         <v>29.706</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -939,9 +939,9 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="13.15">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>2023</v>
@@ -950,7 +950,7 @@
         <v>15.154</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -963,9 +963,9 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="13.15">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>2023</v>
@@ -974,7 +974,7 @@
         <v>10.54</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -987,9 +987,9 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="13.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>2023</v>
@@ -998,7 +998,7 @@
         <v>79.802000000000007</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1011,9 +1011,9 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="13.15">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>2023</v>
@@ -1022,7 +1022,7 @@
         <v>14.177</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1035,9 +1035,9 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="13.15">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>2023</v>
@@ -1046,7 +1046,7 @@
         <v>11.260999999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1059,9 +1059,9 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="13.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>2023</v>
@@ -1070,7 +1070,7 @@
         <v>47.722999999999999</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1083,9 +1083,9 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="13.15">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>2023</v>
@@ -1094,7 +1094,7 @@
         <v>28.626999999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1107,9 +1107,9 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="13.15">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>2023</v>
@@ -1118,7 +1118,7 @@
         <v>30.549898169999999</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1131,9 +1131,9 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="13.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>2023</v>
@@ -1142,7 +1142,7 @@
         <v>30.549898169999999</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1155,9 +1155,9 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="13.15">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -1166,7 +1166,7 @@
         <v>30.549898169999999</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -1179,9 +1179,9 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="13.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>2023</v>
@@ -1190,7 +1190,7 @@
         <v>42.492917849999998</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -1203,9 +1203,9 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="13.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>2023</v>
@@ -1214,7 +1214,7 @@
         <v>30.549898169999999</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1227,9 +1227,9 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="13.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>2023</v>
@@ -1238,7 +1238,7 @@
         <v>76.92307692</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1251,9 +1251,9 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="13.15">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -1262,7 +1262,7 @@
         <v>30.549898169999999</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1275,9 +1275,9 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="13.15">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>2023</v>
@@ -1286,7 +1286,7 @@
         <v>30.549898169999999</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1299,9 +1299,9 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="13.15">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>2023</v>
@@ -1310,7 +1310,7 @@
         <v>30.549898169999999</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1323,9 +1323,9 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="13.15">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>2023</v>
@@ -1334,7 +1334,7 @@
         <v>27.573529409999999</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1347,9 +1347,9 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="13.15">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>2023</v>
@@ -1358,7 +1358,7 @@
         <v>9.4295143800094312</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1371,9 +1371,9 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="13.15">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>2023</v>
@@ -1382,7 +1382,7 @@
         <v>9.4295143800094312</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1395,9 +1395,9 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="13.15">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>2023</v>
@@ -1406,7 +1406,7 @@
         <v>8.5470085470085486</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -1419,9 +1419,9 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="13.15">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>2023</v>
@@ -1430,7 +1430,7 @@
         <v>26.378419235562099</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -1443,9 +1443,9 @@
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="13.15">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>2023</v>
@@ -1454,7 +1454,7 @@
         <v>13.522650439486142</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -1467,9 +1467,9 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="13.15">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>2023</v>
@@ -1478,7 +1478,7 @@
         <v>26.378419235562099</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -1491,9 +1491,9 @@
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="13.15">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>2023</v>
@@ -1502,7 +1502,7 @@
         <v>20.690775641270694</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1511,9 +1511,9 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="13.15">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>2023</v>
@@ -1522,7 +1522,7 @@
         <v>16.861654519882372</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1531,7 +1531,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="13.15">
       <c r="B44" s="2"/>
       <c r="E44" s="2"/>
       <c r="G44" s="3"/>
@@ -1541,7 +1541,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="13.15">
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1550,7 +1550,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="13.15">
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1559,7 +1559,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="13.15">
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1568,7 +1568,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="13.15">
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1577,7 +1577,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="13.15">
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -1585,991 +1585,991 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="13.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="13.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="13.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="13.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="13.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="13.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="13.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="13.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="13.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="13.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="13.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="13.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="13.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="13.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="13.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="13.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="13.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="13.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="13.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="13.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="13.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="13.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="13.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="13.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="13.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="13.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="13.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="13.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="13.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="13.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="13.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="13.15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="13.15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="13.15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="13.15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="13.15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="13.15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="13.15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="13.15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="13.15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="13.15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="13.15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="13.15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="13.15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="13.15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="13.15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="13.15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="13.15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="13.15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="13.15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="13.15">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="13.15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="13.15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="13.15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="13.15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="13.15">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="13.15">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="13.15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="13.15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="13.15">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="13.15">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="13.15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="13.15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="13.15">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="13.15">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="13.15">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="13.15">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="13.15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="13.15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="13.15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="13.15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="13.15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="13.15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="13.15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="13.15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="13.15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="13.15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="13.15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="13.15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="13.15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="13.15">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="13.15">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="13.15">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="13.15">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="13.15">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="13.15">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="13.15">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="13.15">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="13.15">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="13.15">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="13.15">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="13.15">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="13.15">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="13.15">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="13.15">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="13.15">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="13.15">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="13.15">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="13.15">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="13.15">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="13.15">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="13.15">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="13.15">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="13.15">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="13.15">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="13.15">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="13.15">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="13.15">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="13.15">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="13.15">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="13.15">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="13.15">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="13.15">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="13.15">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="13.15">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="13.15">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="13.15">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="13.15">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="13.15">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="13.15">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="13.15">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="13.15">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="13.15">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="13.15">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="13.15">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="13.15">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="13.15">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="13.15">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="13.15">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="13.15">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="13.15">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="13.15">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="13.15">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="13.15">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="13.15">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="13.15">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="13.15">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="13.15">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="13.15">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="13.15">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="13.15">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="13.15">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="13.15">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="13.15">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="13.15">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="13.15">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="13.15">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="13.15">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="13.15">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="13.15">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="13.15">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="13.15">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="13.15">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="13.15">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="13.15">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="13.15">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="13.15">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="13.15">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="13.15">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="13.15">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="13.15">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="13.15">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="13.15">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="13.15">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="13.15">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="13.15">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="13.15">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="13.15">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="13.15">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="13.15">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="13.15">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="13.15">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="13.15">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="13.15">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="13.15">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="13.15">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="13.15">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="13.15">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="13.15">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="13.15">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="13.15">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="13.15">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="13.15">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="13.15">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="13.15">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="13.15">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="13.15">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="13.15">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="13.15">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="13.15">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="13.15">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="13.15">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="13.15">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="13.15">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="13.15">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="13.15">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="13.15">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="13.15">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="13.15">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="13.15">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="13.15">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="13.15">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="13.15">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="13.15">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="13.15">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="13.15">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="13.15">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="13.15">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="13.15">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="13.15">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="13.15">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="13.15">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="13.15">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="13.15">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="13.15">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="13.15">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="13.15">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="13.15">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="13.15">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="13.15">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="13.15">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="13.15">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="13.15">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="13.15">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="13.15">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="13.15">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="13.15">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="13.15">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="13.15">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="13.15">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="13.15">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="13.15">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="13.15">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="13.15">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="13.15">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="13.15">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="13.15">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="13.15">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="13.15">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="13.15">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="13.15">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="13.15">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="13.15">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="13.15">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="13.15">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="13.15">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="13.15">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
     </row>
@@ -2590,12 +2590,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
     <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
@@ -2739,44 +2733,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D5EDA2-EA34-4749-87F9-B0ED13959260}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D5EDA2-EA34-4749-87F9-B0ED13959260}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F030364-7776-4F7E-B779-564F9602B196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F25C59CA-C3EB-47D3-B751-D468C62F2411}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F25C59CA-C3EB-47D3-B751-D468C62F2411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3355bc15-3803-43c6-99c3-19930f83c70c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F030364-7776-4F7E-B779-564F9602B196}"/>
 </file>